--- a/A题/附件/result3.xlsx
+++ b/A题/附件/result3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Math Modeling\2025\CUMCM2025\A题\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C236CD6-1B49-404B-932D-9472C56F736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AE641-DCB2-4337-BDFF-C7404483680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>无人机编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +96,18 @@
   </si>
   <si>
     <t>FY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,17 +503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="11" width="14.58203125" customWidth="1"/>
-    <col min="12" max="12" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,95 +553,383 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2">
+        <v>179.65</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>17800</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>17292.400000000001</v>
+      </c>
+      <c r="I2">
+        <v>3.1</v>
+      </c>
+      <c r="J2">
+        <v>1735.6</v>
+      </c>
+      <c r="K2">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>17829</v>
+      </c>
+      <c r="F3">
+        <v>3.1</v>
+      </c>
+      <c r="G3">
+        <v>1800</v>
+      </c>
+      <c r="H3">
+        <v>16545.3</v>
+      </c>
+      <c r="I3">
+        <v>7.7</v>
+      </c>
+      <c r="J3">
+        <v>1661.7</v>
+      </c>
+      <c r="K3">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>17022.3</v>
+      </c>
+      <c r="F4">
+        <v>4.8</v>
+      </c>
+      <c r="G4">
+        <v>1800</v>
+      </c>
+      <c r="H4">
+        <v>16176.8</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>1621.3</v>
+      </c>
+      <c r="K4">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>290.14999999999998</v>
+      </c>
+      <c r="C5">
+        <v>139.49</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>12237.3</v>
+      </c>
+      <c r="F5">
+        <v>753.1</v>
+      </c>
+      <c r="G5">
+        <v>1400</v>
+      </c>
+      <c r="H5">
+        <v>12497.1</v>
+      </c>
+      <c r="I5">
+        <v>45.1</v>
+      </c>
+      <c r="J5">
+        <v>1256.8</v>
+      </c>
+      <c r="K5">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>122854</v>
+      </c>
+      <c r="F6">
+        <v>622.1</v>
+      </c>
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
+        <v>12358.8</v>
+      </c>
+      <c r="I6">
+        <v>422</v>
+      </c>
+      <c r="J6">
+        <v>1388.6</v>
+      </c>
+      <c r="K6">
+        <v>4.343</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>12357.6</v>
+      </c>
+      <c r="F7">
+        <v>425.1</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>12364.9</v>
+      </c>
+      <c r="I7">
+        <v>405.3</v>
+      </c>
+      <c r="J7">
+        <v>1399.9</v>
+      </c>
+      <c r="K7">
+        <v>3.931</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>83.47</v>
+      </c>
+      <c r="C8">
+        <v>137.24</v>
+      </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6292.1</v>
+      </c>
+      <c r="F8">
+        <v>-447.2</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>6328.6</v>
+      </c>
+      <c r="I8">
+        <v>-127.7</v>
+      </c>
+      <c r="J8">
+        <v>673.1</v>
+      </c>
+      <c r="K8">
+        <v>4.5170000000000003</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>6307.7</v>
+      </c>
+      <c r="F9">
+        <v>-310.7</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>6327</v>
+      </c>
+      <c r="I9">
+        <v>-141.6</v>
+      </c>
+      <c r="J9">
+        <v>692.5</v>
+      </c>
+      <c r="K9">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>6323.3</v>
+      </c>
+      <c r="F10">
+        <v>-174.2</v>
+      </c>
+      <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
+        <v>6324.9</v>
+      </c>
+      <c r="I10">
+        <v>-160.5</v>
+      </c>
+      <c r="J10">
+        <v>700</v>
+      </c>
+      <c r="K10">
+        <v>3.319</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B11">
+        <v>204.45</v>
+      </c>
+      <c r="C11">
+        <v>140</v>
+      </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>9054.6</v>
+      </c>
+      <c r="F11">
+        <v>1115.3</v>
+      </c>
+      <c r="G11">
+        <v>1800</v>
+      </c>
+      <c r="H11">
+        <v>7235.2</v>
+      </c>
+      <c r="I11">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="J11">
+        <v>801.3</v>
+      </c>
+      <c r="K11">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>8927.2000000000007</v>
+      </c>
+      <c r="F12">
+        <v>1057.3</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+      <c r="H12">
+        <v>7116.9</v>
+      </c>
+      <c r="I12">
+        <v>234.1</v>
+      </c>
+      <c r="J12">
+        <v>811.3</v>
+      </c>
+      <c r="K12">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -638,31 +937,109 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B14">
+        <v>118.53</v>
+      </c>
+      <c r="C14">
+        <v>140</v>
+      </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>12269.7</v>
+      </c>
+      <c r="F14">
+        <v>-656.6</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>12122.4</v>
+      </c>
+      <c r="I14">
+        <v>-385.6</v>
+      </c>
+      <c r="J14">
+        <v>1276.2</v>
+      </c>
+      <c r="K14">
+        <v>2.21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>12202.9</v>
+      </c>
+      <c r="F15">
+        <v>-533.6</v>
+      </c>
+      <c r="G15">
+        <v>1300</v>
+      </c>
+      <c r="H15">
+        <v>12124.5</v>
+      </c>
+      <c r="I15">
+        <v>-389.5</v>
+      </c>
+      <c r="J15">
+        <v>1293.3</v>
+      </c>
+      <c r="K15">
+        <v>3.68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>12136</v>
+      </c>
+      <c r="F16">
+        <v>-410.6</v>
+      </c>
+      <c r="G16">
+        <v>1300</v>
+      </c>
+      <c r="H16">
+        <v>12129.3</v>
+      </c>
+      <c r="I16">
+        <v>-398.3</v>
+      </c>
+      <c r="J16">
+        <v>1300</v>
+      </c>
+      <c r="K16">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>12</v>

--- a/A题/附件/result3.xlsx
+++ b/A题/附件/result3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Math Modeling\2025\CUMCM2025\A题\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AE641-DCB2-4337-BDFF-C7404483680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52FE72-B556-4C92-98AF-824F53EAA957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
